--- a/Examples/Price Target.xlsx
+++ b/Examples/Price Target.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\others\Data\XLQuote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B919F0C8-699B-4B53-BA37-9652F8B29B30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025615DB-1479-4A47-BEFA-7AFCCCA6F5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,19 +73,19 @@
     <t>Median</t>
   </si>
   <si>
-    <t>targetHigh</t>
-  </si>
-  <si>
-    <t>targetLow</t>
-  </si>
-  <si>
-    <t>targetMean</t>
-  </si>
-  <si>
-    <t>targetMedian</t>
-  </si>
-  <si>
     <t>Price Target</t>
+  </si>
+  <si>
+    <t>targetHighPrice</t>
+  </si>
+  <si>
+    <t>targetLowPrice</t>
+  </si>
+  <si>
+    <t>targetMeanPrice</t>
+  </si>
+  <si>
+    <t>targetMedianPrice</t>
   </si>
 </sst>
 </file>
@@ -480,7 +480,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="15.46484375" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="10.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -491,7 +491,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -499,11 +499,11 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" cm="1">
         <f t="array" ref="C4">_xll.xlquotePriceTarget(Symbol,B4)</f>
-        <v>150</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -511,11 +511,11 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" cm="1">
         <f t="array" ref="C5">_xll.xlquotePriceTarget(Symbol,B5)</f>
-        <v>74.099999999999994</v>
+        <v>128.01</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -523,11 +523,11 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" cm="1">
         <f t="array" ref="C6">_xll.xlquotePriceTarget(Symbol,B6)</f>
-        <v>123.11</v>
+        <v>179.87</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -535,11 +535,11 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" cm="1">
         <f t="array" ref="C7">_xll.xlquotePriceTarget(Symbol,B7)</f>
-        <v>133</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
